--- a/form3/expansao_atualizado_form3.xlsx
+++ b/form3/expansao_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form3/expansao_atualizado_form3.xlsx
+++ b/form3/expansao_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -120,6 +120,12 @@
         <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2250,7 +2259,7 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="14" t="inlineStr">
         <is>
           <t>Envio Duplicado</t>
         </is>

--- a/form3/expansao_atualizado_form3.xlsx
+++ b/form3/expansao_atualizado_form3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansao" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="expansao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -104,26 +104,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00808080"/>
         <bgColor rgb="00808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -168,9 +156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -188,13 +173,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,8 +556,8 @@
     <col width="31" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="63" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="68" customWidth="1" min="8" max="8"/>
   </cols>
@@ -645,10 +627,14 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>25/03/2025, 01/04/2025, 08/04/2025, 25/03/2025, 02/04/2025</t>
+        </is>
+      </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -673,9 +659,9 @@
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -691,7 +677,7 @@
       <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -711,9 +697,9 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -721,7 +707,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -749,9 +735,9 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -759,7 +745,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -767,7 +753,7 @@
       <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -787,9 +773,9 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -797,7 +783,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -805,7 +791,7 @@
       <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -825,12 +811,16 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -839,7 +829,7 @@
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -859,9 +849,9 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -869,7 +859,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -877,7 +867,7 @@
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -893,9 +883,9 @@
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -911,7 +901,7 @@
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -927,7 +917,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="12" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -941,7 +931,7 @@
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -957,7 +947,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="12" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -971,7 +961,7 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -987,7 +977,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1001,7 +991,7 @@
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1017,7 +1007,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="12" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1031,7 +1021,7 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1047,7 +1037,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="12" t="inlineStr">
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1061,7 +1051,7 @@
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1081,9 +1071,9 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1091,7 +1081,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G15" s="8" t="inlineStr">
+      <c r="G15" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1099,7 +1089,7 @@
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1119,9 +1109,9 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1137,7 +1127,7 @@
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1153,12 +1143,16 @@
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>25/03/2025, 26/03/2025</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1187,9 +1181,9 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1197,7 +1191,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1205,7 +1199,7 @@
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1221,7 +1215,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="E19" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -1255,9 +1249,9 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1265,7 +1259,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1273,7 +1267,7 @@
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1289,12 +1283,16 @@
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n"/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2025, 26/03/2025</t>
+        </is>
+      </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1303,7 +1301,7 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1323,9 +1321,9 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1341,7 +1339,7 @@
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1361,9 +1359,9 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -1379,7 +1377,7 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1399,9 +1397,9 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -1417,7 +1415,7 @@
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1433,12 +1431,16 @@
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n"/>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1447,7 +1449,7 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -1467,9 +1469,9 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1477,7 +1479,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="8" t="inlineStr">
+      <c r="G26" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1485,7 +1487,7 @@
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -1501,9 +1503,9 @@
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -1519,7 +1521,7 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -1539,9 +1541,9 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1549,7 +1551,7 @@
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="8" t="inlineStr">
+      <c r="G28" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1557,7 +1559,7 @@
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1577,9 +1579,9 @@
           <t>Josias Gonçalves</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1587,7 +1589,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="8" t="inlineStr">
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1595,7 +1597,7 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1615,9 +1617,9 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1625,7 +1627,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G30" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1633,7 +1635,7 @@
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1649,9 +1651,9 @@
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1667,7 +1669,7 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1687,9 +1689,9 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1697,7 +1699,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G32" s="8" t="inlineStr">
+      <c r="G32" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1705,7 +1707,7 @@
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1725,9 +1727,9 @@
           <t>Jhonny Angelo Barbieri</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -1735,7 +1737,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G33" s="8" t="inlineStr">
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1743,7 +1745,7 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1763,9 +1765,9 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1773,7 +1775,7 @@
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="G34" s="8" t="inlineStr">
+      <c r="G34" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1781,7 +1783,7 @@
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="A35" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1797,14 +1799,14 @@
         </is>
       </c>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>25/03/2025, 06/05/2025</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
@@ -1815,7 +1817,7 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="inlineStr">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1835,9 +1837,9 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -1845,7 +1847,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G36" s="8" t="inlineStr">
+      <c r="G36" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1853,7 +1855,7 @@
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1873,9 +1875,9 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -1883,7 +1885,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G37" s="8" t="inlineStr">
+      <c r="G37" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1891,7 +1893,7 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -1907,12 +1909,16 @@
         </is>
       </c>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n"/>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1921,7 +1927,7 @@
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1937,9 +1943,9 @@
         </is>
       </c>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -1975,9 +1981,9 @@
           <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1985,7 +1991,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
+      <c r="G40" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1993,7 +1999,7 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2013,12 +2019,16 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2031,7 +2041,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2051,9 +2061,9 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2061,7 +2071,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G42" s="8" t="inlineStr">
+      <c r="G42" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2069,7 +2079,7 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2085,9 +2095,9 @@
         </is>
       </c>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2103,7 +2113,7 @@
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2123,9 +2133,9 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
@@ -2133,7 +2143,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="8" t="inlineStr">
+      <c r="G44" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2141,7 +2151,7 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2161,9 +2171,9 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
@@ -2171,7 +2181,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G45" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2179,7 +2189,7 @@
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2195,7 +2205,7 @@
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="12" t="inlineStr">
+      <c r="E46" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2209,7 +2219,7 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2225,7 +2235,7 @@
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="12" t="inlineStr">
+      <c r="E47" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2239,7 +2249,7 @@
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+      <c r="A48" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2259,17 +2269,17 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="14" t="inlineStr">
-        <is>
-          <t>Envio Duplicado</t>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>07/03/2025, 05/02/2025</t>
-        </is>
-      </c>
-      <c r="G48" s="8" t="inlineStr">
+          <t>05/02/2025, 07/03/2025</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2277,7 +2287,7 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="A49" s="8" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2293,9 +2303,9 @@
         </is>
       </c>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2311,7 +2321,7 @@
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="inlineStr">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2331,9 +2341,9 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -2341,7 +2351,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G50" s="8" t="inlineStr">
+      <c r="G50" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2349,7 +2359,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2369,9 +2379,9 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
@@ -2379,7 +2389,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G51" s="8" t="inlineStr">
+      <c r="G51" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2403,12 +2413,16 @@
         </is>
       </c>
       <c r="D52" s="3" t="n"/>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="n"/>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2417,7 +2431,7 @@
       <c r="H52" s="3" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2433,12 +2447,16 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2447,7 +2465,7 @@
       <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="inlineStr">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2463,7 +2481,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="12" t="inlineStr">
+      <c r="E54" s="11" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -2493,12 +2511,16 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>28/03/2025, 28/03/2025</t>
+        </is>
+      </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2507,7 +2529,7 @@
       <c r="H55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="inlineStr">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2523,12 +2545,16 @@
         </is>
       </c>
       <c r="D56" s="3" t="n"/>
-      <c r="E56" s="12" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="n"/>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2537,7 +2563,7 @@
       <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2557,14 +2583,14 @@
           <t>Liandra Sartor da Silva</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>21/03/2025, 25/03/2025</t>
         </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
@@ -2575,7 +2601,7 @@
       <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2595,9 +2621,9 @@
           <t>Adriano Campos Chagas</t>
         </is>
       </c>
-      <c r="E58" s="6" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Enviadoooooo</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -2605,7 +2631,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="8" t="inlineStr">
+      <c r="G58" s="7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
